--- a/骨干网问题1try/城市距离向下取整.xlsx
+++ b/骨干网问题1try/城市距离向下取整.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692\Desktop\数学建模\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692\Desktop\数学建模\骨干网问题1try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C736566-4D02-46AB-B2CF-D95237E35FD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF306DC-E1A8-42CA-8DB6-C0BF76DF7420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F3C3F26-6483-45F4-AA48-1AB3D23D863C}"/>
+    <workbookView xWindow="3465" yWindow="2055" windowWidth="17265" windowHeight="11205" xr2:uid="{0F3C3F26-6483-45F4-AA48-1AB3D23D863C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>城市编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18643F09-C38D-4A57-B052-B48BF05F7CC1}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1695,12 +1699,71 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>13</v>
+      </c>
+      <c r="O20">
+        <v>14</v>
+      </c>
+      <c r="P20">
+        <v>15</v>
+      </c>
+      <c r="Q20">
+        <v>16</v>
+      </c>
+      <c r="R20">
+        <v>17</v>
+      </c>
       <c r="T20" s="4">
         <f>SUM(T2:T19)</f>
         <v>76</v>
       </c>
       <c r="U20">
         <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S24" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
